--- a/005-formatacao/15-tabelas-design-nomeDaTabela.xlsx
+++ b/005-formatacao/15-tabelas-design-nomeDaTabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Imp\Módulo 3 - Formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\hashtag\hashtagExcel\005-formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3424B7D9-647F-4B3F-BFFA-FC4317AB10A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49575C4-3370-4D78-A418-C206299C40BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="18">
   <si>
     <t>Vendedor</t>
   </si>
@@ -80,11 +80,20 @@
   <si>
     <t>Bermuda Surf</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Jorge Harbes</t>
+  </si>
+  <si>
+    <t>Camisa Preta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -132,8 +141,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="4" xr9:uid="{DC76F44C-E541-4465-B242-39A12FFD8EC0}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -145,8 +237,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEDB0B4-8542-4DA7-922A-512F5EFC70A6}" name="Table1" displayName="Table1" ref="A1:F299" totalsRowCount="1" headerRowDxfId="10" dataDxfId="11">
+  <autoFilter ref="A1:F298" xr:uid="{8EEDB0B4-8542-4DA7-922A-512F5EFC70A6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0BF8202F-4E9B-4FC7-882C-0EFBD701F15F}" name="Vendedor" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{96DB1E31-2368-4210-B943-961A87A26892}" name="Produto" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F493F7F6-89C0-4104-8E3D-3932FDFA7C5B}" name="Data" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3DAF0089-C5AA-4A9D-907A-4F26A7C639A7}" name="Qtd." dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BB0A05E1-E7FC-462A-B38B-48A00AEECFD2}" name="ValorProduto" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7FB71368-6C4E-41D6-BB37-45EC7B9C7573}" name="ValorTotal" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0">
+      <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,20 +551,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B57C723-6BDD-4285-A449-C142A2C89BA1}">
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,7 +605,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -517,7 +626,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -538,7 +647,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -559,7 +668,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -580,7 +689,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -601,7 +710,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -622,7 +731,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -643,7 +752,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,7 +773,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -685,7 +794,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -706,7 +815,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -727,7 +836,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -748,7 +857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -769,7 +878,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -790,7 +899,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,7 +920,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,7 +941,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,7 +962,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,7 +983,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -895,7 +1004,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,7 +1025,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -937,7 +1046,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,7 +1067,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,7 +1088,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +1109,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1130,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1151,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1172,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1193,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1214,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1235,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1256,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1277,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1298,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1319,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1340,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1361,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1382,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1403,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1424,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1445,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1466,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1378,7 +1487,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -1399,7 +1508,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1529,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1550,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1571,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1592,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1613,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1634,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1655,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1676,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1697,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -1609,7 +1718,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1739,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1760,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1781,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1802,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +1823,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1844,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +1865,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -1777,7 +1886,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -1798,7 +1907,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -1819,7 +1928,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1949,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -1861,7 +1970,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -1903,7 +2012,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +2033,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +2054,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +2075,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -1987,7 +2096,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2117,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2138,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2159,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -2071,7 +2180,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2201,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2222,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -2134,7 +2243,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2264,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2285,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -2197,7 +2306,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2327,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2348,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2369,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -2281,7 +2390,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2411,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2432,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -2344,7 +2453,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2474,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2495,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2516,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -2428,7 +2537,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -2449,7 +2558,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2579,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2600,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2621,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2642,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -2554,7 +2663,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2684,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -2596,7 +2705,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +2726,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +2747,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +2768,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -2680,7 +2789,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -2701,7 +2810,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2831,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -2743,7 +2852,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2873,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +2894,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +2915,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +2936,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +2957,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
@@ -2869,7 +2978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +2999,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -2911,7 +3020,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -2932,7 +3041,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -2953,7 +3062,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +3083,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -2995,7 +3104,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3125,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +3146,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -3058,7 +3167,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3188,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -3100,7 +3209,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3230,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3251,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -3163,7 +3272,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -3184,7 +3293,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -3205,7 +3314,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -3226,7 +3335,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3356,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3268,7 +3377,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3398,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3419,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -3331,7 +3440,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -3352,7 +3461,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -3373,7 +3482,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -3394,7 +3503,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -3415,7 +3524,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -3436,7 +3545,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -3457,7 +3566,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -3478,7 +3587,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -3499,7 +3608,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
@@ -3520,7 +3629,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -3541,7 +3650,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -3562,7 +3671,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -3583,7 +3692,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -3604,7 +3713,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -3625,7 +3734,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -3646,7 +3755,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -3667,7 +3776,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -3688,7 +3797,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -3709,7 +3818,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -3730,7 +3839,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +3860,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +3881,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>11</v>
       </c>
@@ -3793,7 +3902,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -3814,7 +3923,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -3835,7 +3944,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3965,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +3986,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
@@ -3898,7 +4007,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>8</v>
       </c>
@@ -3919,7 +4028,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -3940,7 +4049,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +4070,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -3982,7 +4091,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
@@ -4003,7 +4112,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4133,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>8</v>
       </c>
@@ -4045,7 +4154,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4175,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -4087,7 +4196,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
@@ -4108,7 +4217,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -4129,7 +4238,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
@@ -4150,7 +4259,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>8</v>
       </c>
@@ -4171,7 +4280,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
@@ -4192,7 +4301,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>6</v>
       </c>
@@ -4213,7 +4322,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>13</v>
       </c>
@@ -4234,7 +4343,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -4255,7 +4364,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>8</v>
       </c>
@@ -4276,7 +4385,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>8</v>
       </c>
@@ -4297,7 +4406,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4427,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -4339,7 +4448,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -4360,7 +4469,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
@@ -4381,7 +4490,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4511,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>8</v>
       </c>
@@ -4423,7 +4532,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4553,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
@@ -4465,7 +4574,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>8</v>
       </c>
@@ -4486,7 +4595,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>8</v>
       </c>
@@ -4507,7 +4616,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -4528,7 +4637,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4658,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
@@ -4570,7 +4679,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
@@ -4591,7 +4700,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>13</v>
       </c>
@@ -4612,7 +4721,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>11</v>
       </c>
@@ -4633,7 +4742,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>13</v>
       </c>
@@ -4654,7 +4763,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -4675,7 +4784,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +4805,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
@@ -4717,7 +4826,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -4738,7 +4847,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>13</v>
       </c>
@@ -4759,7 +4868,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>6</v>
       </c>
@@ -4780,7 +4889,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>8</v>
       </c>
@@ -4801,7 +4910,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>8</v>
       </c>
@@ -4822,7 +4931,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>13</v>
       </c>
@@ -4843,7 +4952,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +4973,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
@@ -4885,7 +4994,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +5015,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +5036,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
@@ -4948,7 +5057,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -4969,7 +5078,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>8</v>
       </c>
@@ -4990,7 +5099,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
@@ -5011,7 +5120,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5141,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>13</v>
       </c>
@@ -5053,7 +5162,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +5183,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -5095,7 +5204,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -5116,7 +5225,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>8</v>
       </c>
@@ -5137,7 +5246,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -5158,7 +5267,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -5179,7 +5288,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -5200,7 +5309,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>13</v>
       </c>
@@ -5221,7 +5330,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>8</v>
       </c>
@@ -5242,7 +5351,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
@@ -5263,7 +5372,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -5284,7 +5393,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>8</v>
       </c>
@@ -5305,7 +5414,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -5326,7 +5435,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>6</v>
       </c>
@@ -5347,7 +5456,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -5368,7 +5477,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -5389,7 +5498,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -5410,7 +5519,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +5540,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>8</v>
       </c>
@@ -5452,7 +5561,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5582,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
@@ -5494,7 +5603,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -5515,7 +5624,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>6</v>
       </c>
@@ -5536,7 +5645,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>6</v>
       </c>
@@ -5557,7 +5666,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>6</v>
       </c>
@@ -5578,7 +5687,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5708,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
@@ -5620,7 +5729,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>8</v>
       </c>
@@ -5641,7 +5750,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -5662,7 +5771,7 @@
         <v>299.5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>6</v>
       </c>
@@ -5683,7 +5792,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>13</v>
       </c>
@@ -5704,7 +5813,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>13</v>
       </c>
@@ -5725,7 +5834,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>6</v>
       </c>
@@ -5746,7 +5855,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>8</v>
       </c>
@@ -5767,7 +5876,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>11</v>
       </c>
@@ -5788,7 +5897,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>13</v>
       </c>
@@ -5809,7 +5918,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>8</v>
       </c>
@@ -5830,7 +5939,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
@@ -5851,7 +5960,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>8</v>
       </c>
@@ -5872,7 +5981,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +6002,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>6</v>
       </c>
@@ -5914,7 +6023,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>8</v>
       </c>
@@ -5935,7 +6044,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>11</v>
       </c>
@@ -5956,7 +6065,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>11</v>
       </c>
@@ -5977,7 +6086,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +6107,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>6</v>
       </c>
@@ -6019,7 +6128,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -6040,7 +6149,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>6</v>
       </c>
@@ -6061,7 +6170,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>13</v>
       </c>
@@ -6082,7 +6191,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>6</v>
       </c>
@@ -6103,7 +6212,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>6</v>
       </c>
@@ -6124,7 +6233,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>8</v>
       </c>
@@ -6145,7 +6254,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>13</v>
       </c>
@@ -6166,7 +6275,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>13</v>
       </c>
@@ -6187,7 +6296,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>13</v>
       </c>
@@ -6208,7 +6317,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>8</v>
       </c>
@@ -6229,7 +6338,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +6359,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>11</v>
       </c>
@@ -6271,7 +6380,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -6292,7 +6401,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>11</v>
       </c>
@@ -6313,7 +6422,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6443,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>13</v>
       </c>
@@ -6355,7 +6464,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>8</v>
       </c>
@@ -6376,7 +6485,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>13</v>
       </c>
@@ -6397,7 +6506,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +6527,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -6439,7 +6548,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>11</v>
       </c>
@@ -6460,7 +6569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>11</v>
       </c>
@@ -6481,7 +6590,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -6502,7 +6611,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>8</v>
       </c>
@@ -6523,7 +6632,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
@@ -6544,7 +6653,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>11</v>
       </c>
@@ -6565,7 +6674,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>8</v>
       </c>
@@ -6586,7 +6695,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -6607,7 +6716,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -6628,7 +6737,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
@@ -6649,7 +6758,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>8</v>
       </c>
@@ -6670,7 +6779,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>11</v>
       </c>
@@ -6691,7 +6800,44 @@
         <v>119.8</v>
       </c>
     </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" s="2">
+        <v>45137</v>
+      </c>
+      <c r="D298" s="1">
+        <v>2</v>
+      </c>
+      <c r="E298" s="3">
+        <v>50</v>
+      </c>
+      <c r="F298" s="3">
+        <f>E298*D298</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="3">
+        <f>SUBTOTAL(109,Table1[ValorTotal])</f>
+        <v>54989.20000000015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>